--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADA0935-4F86-5948-8604-23B5CA40377A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95965EDE-0382-334E-93AF-F13916F1071D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="538">
   <si>
     <t>Word</t>
   </si>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>383</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>537</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>537</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>537</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>484</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>537</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>537</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>537</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>537</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>537</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>537</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>537</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>537</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>537</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>537</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>537</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>537</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>537</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>537</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>537</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>537</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>537</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>394</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>537</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>537</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>537</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>537</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>392</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>537</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>537</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>537</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>537</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>537</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>537</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>537</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>537</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>537</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>537</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>537</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>537</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>537</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>537</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>537</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>537</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>537</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>537</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>537</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>537</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>478</v>
+        <v>234</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>537</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>402</v>
+        <v>235</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>537</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>537</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>6</v>
+        <v>409</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>537</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>537</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>537</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>537</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>537</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>537</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>537</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>537</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>537</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>235</v>
+        <v>411</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>537</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>537</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>409</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>537</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>216</v>
+        <v>490</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>537</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>488</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>537</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>537</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>537</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>537</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>537</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>537</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>410</v>
+        <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>537</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>537</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>537</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>537</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>537</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>490</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>537</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>537</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>537</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>537</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>537</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>412</v>
+        <v>293</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>537</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>537</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>537</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>537</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>492</v>
+        <v>294</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>537</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>493</v>
+        <v>239</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>537</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>537</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>537</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>537</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>537</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>537</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>15</v>
+        <v>413</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>537</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>494</v>
+        <v>242</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>537</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>537</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>495</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>537</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>537</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>537</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>537</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>537</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>537</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>537</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>537</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>537</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>537</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>240</v>
+        <v>479</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>537</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>537</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>537</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>537</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>537</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>537</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>537</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>537</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>537</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>537</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>537</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>537</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>537</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>537</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>537</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>537</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>537</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>537</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>496</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>537</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>537</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>537</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>537</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>537</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>28</v>
+        <v>497</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>537</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>537</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>537</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>537</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>537</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>246</v>
+        <v>415</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>537</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>537</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>537</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>537</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>537</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>537</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>537</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>537</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>537</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>537</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>537</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>537</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>537</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>537</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>537</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>537</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>537</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>537</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>537</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>537</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>537</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>537</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>537</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>537</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>497</v>
+        <v>252</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>537</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>537</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>537</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>537</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>537</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>537</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>415</v>
+        <v>56</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>537</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>537</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>537</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>537</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>416</v>
+        <v>58</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>537</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>537</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>537</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>537</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>537</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>537</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>537</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>537</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>48</v>
+        <v>424</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>537</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>537</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>537</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>537</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>537</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>419</v>
+        <v>65</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>537</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>537</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>537</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>50</v>
+        <v>425</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>537</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>537</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>51</v>
+        <v>480</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>537</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>537</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>537</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>537</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>537</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>53</v>
+        <v>428</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>537</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>54</v>
+        <v>501</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>537</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>537</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>537</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>537</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>537</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>537</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>537</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>537</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>537</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>537</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>537</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>537</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>57</v>
+        <v>429</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>537</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>537</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>537</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>58</v>
+        <v>504</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>537</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>59</v>
+        <v>505</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>537</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>537</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>537</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>537</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>422</v>
+        <v>506</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>537</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>537</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>537</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>537</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>537</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>62</v>
+        <v>431</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>537</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>537</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>537</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>63</v>
+        <v>508</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>537</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>64</v>
+        <v>509</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>537</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>537</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>537</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>537</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>537</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>537</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>537</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>537</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>537</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>537</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>537</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>537</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>537</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>537</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>312</v>
+        <v>511</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>537</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>67</v>
+        <v>435</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>537</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>537</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>537</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>537</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>537</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>69</v>
+        <v>512</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>537</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>502</v>
+        <v>85</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>537</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>537</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>537</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>537</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>537</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>537</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>537</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>537</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>537</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>537</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>537</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>537</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>537</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>504</v>
+        <v>90</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>537</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>505</v>
+        <v>91</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>537</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>537</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>537</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>318</v>
+        <v>513</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>537</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>217</v>
+        <v>439</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>537</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>537</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>537</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>537</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>430</v>
+        <v>328</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>537</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>537</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>537</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>537</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>431</v>
+        <v>95</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>537</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>537</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>537</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>508</v>
+        <v>96</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>537</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>509</v>
+        <v>329</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>537</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>319</v>
+        <v>481</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>537</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>510</v>
+        <v>97</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>537</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>537</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>537</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>537</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>537</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>537</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>433</v>
+        <v>102</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>537</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>537</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>537</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>537</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>537</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>537</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>537</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>511</v>
+        <v>103</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>537</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>537</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>537</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>436</v>
+        <v>105</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>537</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>537</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>537</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>537</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>537</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>537</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>537</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>537</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>537</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>537</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>537</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>537</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>537</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>537</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>537</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>537</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>537</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>537</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>537</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>537</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>90</v>
+        <v>447</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>537</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>537</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>537</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>537</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>325</v>
+        <v>122</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>537</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>537</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>537</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>513</v>
+        <v>124</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>537</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>537</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>537</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>92</v>
+        <v>449</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>537</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>440</v>
+        <v>126</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>537</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>328</v>
+        <v>127</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>537</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>537</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>537</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>537</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>537</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>537</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>537</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>537</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>441</v>
+        <v>133</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>537</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>537</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>537</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>329</v>
+        <v>515</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>537</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>481</v>
+        <v>134</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>537</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>97</v>
+        <v>450</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>537</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>537</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>537</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>537</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>537</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>537</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>537</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>331</v>
+        <v>136</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>537</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>537</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>537</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>482</v>
+        <v>263</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>537</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>537</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>537</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>537</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>537</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>537</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>537</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>537</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>537</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>537</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>537</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>445</v>
+        <v>142</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>537</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>537</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>537</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>537</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>218</v>
+        <v>454</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>537</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>109</v>
+        <v>516</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>537</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>537</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>537</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>537</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>537</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>110</v>
+        <v>455</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>537</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>219</v>
+        <v>456</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>537</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>537</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>537</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>537</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>537</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>537</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>537</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>537</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>537</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>537</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>537</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>537</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>537</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>537</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>537</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>120</v>
+        <v>349</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>537</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>121</v>
+        <v>458</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>537</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>537</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>537</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>335</v>
+        <v>157</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>537</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>537</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>123</v>
+        <v>351</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>537</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>537</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>125</v>
+        <v>517</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>537</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>537</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>537</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>449</v>
+        <v>159</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>537</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>126</v>
+        <v>460</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>537</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>537</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>537</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>537</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>537</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>537</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>130</v>
+        <v>518</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>537</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>537</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>537</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>537</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>337</v>
+        <v>519</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>537</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>537</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>537</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>537</v>
@@ -5375,15 +5375,15 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="2" t="s">
-        <v>515</v>
+      <c r="A414" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>537</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>134</v>
+        <v>356</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>537</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>537</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>537</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>537</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>537</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>537</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>537</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>537</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>262</v>
+        <v>463</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>537</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>452</v>
+        <v>170</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>537</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>537</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>537</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>537</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>537</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>537</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>537</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>537</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>537</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>537</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>537</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>537</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>537</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>537</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>537</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>537</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>344</v>
+        <v>180</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>537</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>344</v>
+        <v>181</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>537</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>537</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>141</v>
+        <v>359</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>537</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>537</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>537</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>537</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>345</v>
+        <v>467</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>537</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>537</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>537</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>537</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>516</v>
+        <v>220</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>537</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>537</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>537</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>537</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>537</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>537</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>537</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>537</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>537</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>537</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>537</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>150</v>
+        <v>521</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>537</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>537</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>347</v>
+        <v>188</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>537</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>537</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>537</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>537</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>537</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>537</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>537</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>537</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>457</v>
+        <v>193</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>537</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>537</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>537</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>537</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>537</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>537</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>537</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>537</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>537</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>350</v>
+        <v>522</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>537</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>537</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>377</v>
+        <v>472</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>537</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>537</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>537</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>537</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>537</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>517</v>
+        <v>366</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>537</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>537</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>459</v>
+        <v>368</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>537</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>159</v>
+        <v>473</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>537</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>537</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>537</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>537</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>352</v>
+        <v>474</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>537</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>537</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>160</v>
+        <v>523</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>537</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>537</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>537</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>537</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>461</v>
+        <v>205</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>537</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>537</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>269</v>
+        <v>526</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>537</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>537</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>537</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>537</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>537</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>537</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>537</v>
@@ -6151,15 +6151,15 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="3" t="s">
-        <v>462</v>
+      <c r="A511" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>537</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>537</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>537</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>537</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>537</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>537</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>537</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>272</v>
+        <v>529</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>537</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>537</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>537</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>537</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>537</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>537</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>273</v>
+        <v>531</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>537</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>537</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>537</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>537</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>173</v>
+        <v>532</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>537</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>537</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>174</v>
+        <v>534</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>537</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>537</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>537</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>537</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>358</v>
+        <v>535</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>537</v>
@@ -6351,1036 +6351,782 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="A536"/>
       <c r="B536" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="A537"/>
       <c r="B537" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="A538"/>
       <c r="B538" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A539"/>
       <c r="B539" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="A540"/>
       <c r="B540" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="A541"/>
       <c r="B541" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="A542"/>
       <c r="B542" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="A543"/>
       <c r="B543" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="A544"/>
       <c r="B544" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="A545"/>
       <c r="B545" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="A546"/>
       <c r="B546" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="A547"/>
       <c r="B547" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="A548"/>
       <c r="B548" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A549"/>
       <c r="B549" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="A550"/>
       <c r="B550" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="A551"/>
       <c r="B551" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="A552"/>
       <c r="B552" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="A553"/>
       <c r="B553" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="A554"/>
       <c r="B554" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A555"/>
       <c r="B555" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="A556"/>
       <c r="B556" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="A557"/>
       <c r="B557" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A558"/>
       <c r="B558" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A559"/>
       <c r="B559" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A560"/>
       <c r="B560" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A561"/>
       <c r="B561" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" s="2" t="s">
-        <v>361</v>
-      </c>
+      <c r="A562"/>
       <c r="B562" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="2" t="s">
-        <v>361</v>
-      </c>
+      <c r="A563"/>
       <c r="B563" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="A564"/>
       <c r="B564" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="A565"/>
       <c r="B565" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="A566"/>
       <c r="B566" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="A567"/>
       <c r="B567" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="A568"/>
       <c r="B568" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="A569"/>
       <c r="B569" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="2" t="s">
-        <v>521</v>
-      </c>
+      <c r="A570"/>
       <c r="B570" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="A571"/>
       <c r="B571" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="A572"/>
       <c r="B572" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="A573"/>
       <c r="B573" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="A574"/>
       <c r="B574" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="A575"/>
       <c r="B575" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="A576"/>
       <c r="B576" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="A577"/>
       <c r="B577" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A578"/>
       <c r="B578" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A579"/>
       <c r="B579" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="A580"/>
       <c r="B580" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="A581"/>
       <c r="B581" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="A582"/>
       <c r="B582" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="A583"/>
       <c r="B583" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A584"/>
       <c r="B584" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="A585"/>
       <c r="B585" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="A586"/>
       <c r="B586" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="A587"/>
       <c r="B587" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A588"/>
       <c r="B588" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A589"/>
       <c r="B589" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="A590"/>
       <c r="B590" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="A591"/>
       <c r="B591" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="A592"/>
       <c r="B592" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="A593"/>
       <c r="B593" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="2" t="s">
-        <v>471</v>
-      </c>
+      <c r="A594"/>
       <c r="B594" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="2" t="s">
-        <v>522</v>
-      </c>
+      <c r="A595"/>
       <c r="B595" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A596"/>
       <c r="B596" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="A597"/>
       <c r="B597" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="A598"/>
       <c r="B598" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="A599"/>
       <c r="B599" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A600"/>
       <c r="B600" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="2" t="s">
-        <v>379</v>
-      </c>
+      <c r="A601"/>
       <c r="B601" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="2" t="s">
-        <v>379</v>
-      </c>
+      <c r="A602"/>
       <c r="B602" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="2" t="s">
-        <v>365</v>
-      </c>
+      <c r="A603"/>
       <c r="B603" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="A604"/>
       <c r="B604" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="A605"/>
       <c r="B605" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="A606"/>
       <c r="B606" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="2" t="s">
-        <v>473</v>
-      </c>
+      <c r="A607"/>
       <c r="B607" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="A608"/>
       <c r="B608" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609" s="2" t="s">
-        <v>370</v>
-      </c>
+      <c r="A609"/>
       <c r="B609" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="A610"/>
       <c r="B610" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611" s="2" t="s">
-        <v>474</v>
-      </c>
+      <c r="A611"/>
       <c r="B611" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A612"/>
       <c r="B612" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="A613"/>
       <c r="B613" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="A614"/>
       <c r="B614" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="A615"/>
       <c r="B615" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616" s="2" t="s">
-        <v>371</v>
-      </c>
+      <c r="A616"/>
       <c r="B616" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="2" t="s">
-        <v>524</v>
-      </c>
+      <c r="A617"/>
       <c r="B617" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="A618"/>
       <c r="B618" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="A619"/>
       <c r="B619" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="2" t="s">
-        <v>525</v>
-      </c>
+      <c r="A620"/>
       <c r="B620" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A621"/>
       <c r="B621" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622" s="2" t="s">
-        <v>475</v>
-      </c>
+      <c r="A622"/>
       <c r="B622" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="A623"/>
       <c r="B623" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="A624"/>
       <c r="B624" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A625"/>
       <c r="B625" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A626"/>
       <c r="B626" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="A627"/>
       <c r="B627" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="2" t="s">
-        <v>476</v>
-      </c>
+      <c r="A628"/>
       <c r="B628" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="A629"/>
       <c r="B629" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="A630"/>
       <c r="B630" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="A631"/>
       <c r="B631" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="A632"/>
       <c r="B632" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A633"/>
       <c r="B633" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A634"/>
       <c r="B634" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="2" t="s">
-        <v>527</v>
-      </c>
+      <c r="A635"/>
       <c r="B635" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A636"/>
       <c r="B636" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A637"/>
       <c r="B637" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A638"/>
       <c r="B638" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A639"/>
       <c r="B639" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="A640"/>
       <c r="B640" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="A641"/>
       <c r="B641" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="A642"/>
       <c r="B642" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="2" t="s">
-        <v>529</v>
-      </c>
+      <c r="A643"/>
       <c r="B643" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A644"/>
       <c r="B644" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="A645"/>
       <c r="B645" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A646"/>
       <c r="B646" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="A647"/>
       <c r="B647" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="A648"/>
       <c r="B648" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="2" t="s">
-        <v>531</v>
-      </c>
+      <c r="A649"/>
       <c r="B649" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="A650"/>
       <c r="B650" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="A651"/>
       <c r="B651" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="A652"/>
       <c r="B652" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="A653"/>
       <c r="B653" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="2" t="s">
-        <v>532</v>
-      </c>
+      <c r="A654"/>
       <c r="B654" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="A655"/>
       <c r="B655" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="A656"/>
       <c r="B656" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="A657"/>
       <c r="B657" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="A658"/>
       <c r="B658" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="A659"/>
       <c r="B659" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="A660"/>
       <c r="B660" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="A661"/>
       <c r="B661" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="2" t="s">
-        <v>536</v>
-      </c>
+      <c r="A662"/>
       <c r="B662" s="1" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
-    <sortState ref="A2:B662">
+  <autoFilter ref="A1:B535" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
+    <sortState ref="A2:B535">
       <sortCondition ref="A1:A662"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A511" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
+    <hyperlink ref="A414" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95965EDE-0382-334E-93AF-F13916F1071D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E033700-C693-7E41-A2F9-1F9F7744080A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="538">
   <si>
     <t>Word</t>
   </si>
@@ -2068,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2ACCF-A399-9E41-B429-5A160A996BCC}">
   <dimension ref="A1:B662"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B536" sqref="B536:B662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6359,765 +6359,384 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536"/>
-      <c r="B536" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537"/>
-      <c r="B537" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538"/>
-      <c r="B538" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539"/>
-      <c r="B539" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540"/>
-      <c r="B540" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541"/>
-      <c r="B541" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542"/>
-      <c r="B542" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543"/>
-      <c r="B543" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544"/>
-      <c r="B544" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545"/>
-      <c r="B545" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546"/>
-      <c r="B546" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547"/>
-      <c r="B547" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548"/>
-      <c r="B548" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549"/>
-      <c r="B549" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550"/>
-      <c r="B550" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551"/>
-      <c r="B551" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552"/>
-      <c r="B552" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553"/>
-      <c r="B553" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554"/>
-      <c r="B554" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555"/>
-      <c r="B555" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556"/>
-      <c r="B556" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557"/>
-      <c r="B557" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558"/>
-      <c r="B558" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559"/>
-      <c r="B559" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560"/>
-      <c r="B560" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561"/>
-      <c r="B561" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562"/>
-      <c r="B562" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563"/>
-      <c r="B563" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564"/>
-      <c r="B564" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565"/>
-      <c r="B565" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566"/>
-      <c r="B566" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567"/>
-      <c r="B567" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568"/>
-      <c r="B568" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569"/>
-      <c r="B569" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570"/>
-      <c r="B570" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571"/>
-      <c r="B571" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572"/>
-      <c r="B572" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573"/>
-      <c r="B573" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574"/>
-      <c r="B574" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575"/>
-      <c r="B575" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576"/>
-      <c r="B576" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577"/>
-      <c r="B577" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578"/>
-      <c r="B578" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579"/>
-      <c r="B579" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580"/>
-      <c r="B580" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581"/>
-      <c r="B581" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582"/>
-      <c r="B582" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583"/>
-      <c r="B583" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584"/>
-      <c r="B584" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585"/>
-      <c r="B585" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586"/>
-      <c r="B586" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587"/>
-      <c r="B587" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588"/>
-      <c r="B588" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589"/>
-      <c r="B589" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590"/>
-      <c r="B590" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591"/>
-      <c r="B591" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592"/>
-      <c r="B592" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593"/>
-      <c r="B593" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594"/>
-      <c r="B594" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595"/>
-      <c r="B595" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596"/>
-      <c r="B596" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597"/>
-      <c r="B597" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598"/>
-      <c r="B598" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599"/>
-      <c r="B599" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600"/>
-      <c r="B600" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601"/>
-      <c r="B601" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602"/>
-      <c r="B602" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603"/>
-      <c r="B603" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604"/>
-      <c r="B604" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605"/>
-      <c r="B605" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606"/>
-      <c r="B606" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607"/>
-      <c r="B607" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608"/>
-      <c r="B608" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609"/>
-      <c r="B609" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610"/>
-      <c r="B610" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611"/>
-      <c r="B611" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612"/>
-      <c r="B612" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613"/>
-      <c r="B613" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614"/>
-      <c r="B614" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615"/>
-      <c r="B615" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616"/>
-      <c r="B616" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617"/>
-      <c r="B617" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618"/>
-      <c r="B618" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619"/>
-      <c r="B619" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620"/>
-      <c r="B620" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621"/>
-      <c r="B621" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622"/>
-      <c r="B622" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623"/>
-      <c r="B623" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624"/>
-      <c r="B624" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625"/>
-      <c r="B625" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626"/>
-      <c r="B626" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627"/>
-      <c r="B627" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628"/>
-      <c r="B628" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629"/>
-      <c r="B629" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630"/>
-      <c r="B630" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631"/>
-      <c r="B631" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632"/>
-      <c r="B632" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633"/>
-      <c r="B633" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634"/>
-      <c r="B634" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635"/>
-      <c r="B635" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636"/>
-      <c r="B636" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637"/>
-      <c r="B637" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638"/>
-      <c r="B638" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639"/>
-      <c r="B639" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640"/>
-      <c r="B640" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641"/>
-      <c r="B641" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642"/>
-      <c r="B642" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643"/>
-      <c r="B643" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644"/>
-      <c r="B644" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645"/>
-      <c r="B645" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646"/>
-      <c r="B646" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647"/>
-      <c r="B647" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648"/>
-      <c r="B648" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649"/>
-      <c r="B649" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650"/>
-      <c r="B650" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651"/>
-      <c r="B651" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652"/>
-      <c r="B652" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653"/>
-      <c r="B653" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654"/>
-      <c r="B654" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655"/>
-      <c r="B655" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656"/>
-      <c r="B656" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657"/>
-      <c r="B657" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658"/>
-      <c r="B658" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659"/>
-      <c r="B659" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660"/>
-      <c r="B660" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661"/>
-      <c r="B661" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662"/>
-      <c r="B662" s="1" t="s">
-        <v>537</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B535" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E033700-C693-7E41-A2F9-1F9F7744080A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9BECF5-E315-2546-AB17-C18EFE367A42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="539">
   <si>
     <t>Word</t>
   </si>
@@ -812,9 +812,6 @@
     <t>leave</t>
   </si>
   <si>
-    <t>let’s</t>
-  </si>
-  <si>
     <t>marry</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>infra</t>
   </si>
   <si>
-    <t>intl.</t>
-  </si>
-  <si>
     <t>jildi</t>
   </si>
   <si>
@@ -1649,7 +1643,16 @@
     <t>zowie</t>
   </si>
   <si>
-    <t>N</t>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>pleas</t>
+  </si>
+  <si>
+    <t>drown</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2ACCF-A399-9E41-B429-5A160A996BCC}">
-  <dimension ref="A1:B662"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B536" sqref="B536:B662"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2111,7 +2114,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2159,18 +2162,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2178,7 +2181,7 @@
         <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2186,15 +2189,15 @@
         <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,55 +2205,55 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2258,23 +2261,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2282,31 +2285,31 @@
         <v>230</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2314,39 +2317,39 @@
         <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2354,55 +2357,55 @@
         <v>231</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2410,39 +2413,39 @@
         <v>232</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2450,31 +2453,31 @@
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2482,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2490,23 +2493,23 @@
         <v>233</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2514,7 +2517,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2522,23 +2525,23 @@
         <v>235</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2546,15 +2549,15 @@
         <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2562,7 +2565,7 @@
         <v>236</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2570,55 +2573,55 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2626,15 +2629,15 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2642,15 +2645,15 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2658,15 +2661,15 @@
         <v>237</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2674,15 +2677,15 @@
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2690,31 +2693,31 @@
         <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2722,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -2730,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2738,15 +2741,15 @@
         <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2754,31 +2757,31 @@
         <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2786,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2794,15 +2797,15 @@
         <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2810,15 +2813,15 @@
         <v>239</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2826,7 +2829,7 @@
         <v>18</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2834,7 +2837,7 @@
         <v>240</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2842,7 +2845,7 @@
         <v>241</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2850,15 +2853,15 @@
         <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2866,7 +2869,7 @@
         <v>242</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2874,7 +2877,7 @@
         <v>243</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2882,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2890,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -2898,15 +2901,15 @@
         <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -2914,7 +2917,7 @@
         <v>244</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2922,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2930,7 +2933,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2938,7 +2941,7 @@
         <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2946,31 +2949,31 @@
         <v>26</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2978,7 +2981,7 @@
         <v>27</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2986,7 +2989,7 @@
         <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2994,7 +2997,7 @@
         <v>245</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3002,7 +3005,7 @@
         <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3010,7 +3013,7 @@
         <v>247</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3018,7 +3021,7 @@
         <v>29</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -3026,7 +3029,7 @@
         <v>248</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -3034,7 +3037,7 @@
         <v>30</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3042,7 +3045,7 @@
         <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3050,7 +3053,7 @@
         <v>249</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3058,7 +3061,7 @@
         <v>32</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3066,23 +3069,23 @@
         <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3090,7 +3093,7 @@
         <v>34</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3098,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -3106,7 +3109,7 @@
         <v>36</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -3114,7 +3117,7 @@
         <v>37</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3122,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,23 +3133,23 @@
         <v>39</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3154,7 +3157,7 @@
         <v>40</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3162,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3170,39 +3173,39 @@
         <v>42</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3210,7 +3213,7 @@
         <v>43</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3218,7 +3221,7 @@
         <v>44</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3226,7 +3229,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3234,7 +3237,7 @@
         <v>46</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3242,15 +3245,15 @@
         <v>47</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3258,7 +3261,7 @@
         <v>48</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3266,31 +3269,31 @@
         <v>49</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -3298,15 +3301,15 @@
         <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -3314,7 +3317,7 @@
         <v>51</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3322,7 +3325,7 @@
         <v>250</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -3330,7 +3333,7 @@
         <v>251</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3338,15 +3341,15 @@
         <v>52</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -3354,7 +3357,7 @@
         <v>53</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -3362,15 +3365,15 @@
         <v>54</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -3378,23 +3381,23 @@
         <v>252</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -3402,23 +3405,23 @@
         <v>55</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3426,15 +3429,15 @@
         <v>56</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -3442,15 +3445,15 @@
         <v>57</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,7 +3461,7 @@
         <v>58</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -3466,23 +3469,23 @@
         <v>59</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -3490,7 +3493,7 @@
         <v>60</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -3498,7 +3501,7 @@
         <v>61</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -3506,23 +3509,23 @@
         <v>62</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -3530,7 +3533,7 @@
         <v>63</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -3538,23 +3541,23 @@
         <v>64</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -3562,7 +3565,7 @@
         <v>65</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -3570,63 +3573,63 @@
         <v>66</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -3634,31 +3637,31 @@
         <v>67</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +3669,7 @@
         <v>68</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -3674,23 +3677,23 @@
         <v>69</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -3698,15 +3701,15 @@
         <v>70</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -3714,7 +3717,7 @@
         <v>71</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -3722,7 +3725,7 @@
         <v>253</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -3730,55 +3733,55 @@
         <v>72</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,15 +3789,15 @@
         <v>73</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,23 +3805,23 @@
         <v>217</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +3829,7 @@
         <v>74</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -3834,7 +3837,7 @@
         <v>75</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,15 +3845,15 @@
         <v>76</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -3858,63 +3861,63 @@
         <v>77</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -3922,7 +3925,7 @@
         <v>78</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -3930,7 +3933,7 @@
         <v>254</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -3938,23 +3941,23 @@
         <v>79</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -3962,1007 +3965,1007 @@
         <v>80</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>84</v>
+        <v>510</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>512</v>
+        <v>85</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>86</v>
+        <v>435</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>437</v>
+        <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>87</v>
+        <v>256</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>438</v>
+        <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>325</v>
+        <v>511</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>326</v>
+        <v>437</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>513</v>
+        <v>326</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>439</v>
+        <v>92</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>440</v>
+        <v>93</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>259</v>
+        <v>439</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>95</v>
+        <v>512</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>441</v>
+        <v>96</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>96</v>
+        <v>479</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>481</v>
+        <v>98</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>98</v>
+        <v>329</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>442</v>
+        <v>103</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>107</v>
+        <v>443</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>446</v>
+        <v>109</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>117</v>
+        <v>445</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>447</v>
+        <v>120</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>124</v>
+        <v>446</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>125</v>
+        <v>447</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>448</v>
+        <v>126</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>449</v>
+        <v>127</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>450</v>
+        <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>451</v>
+        <v>261</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>263</v>
+        <v>451</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>453</v>
+        <v>264</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -4970,127 +4973,127 @@
         <v>345</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>143</v>
+        <v>452</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>346</v>
+        <v>514</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>454</v>
+        <v>144</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>516</v>
+        <v>145</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>146</v>
+        <v>453</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>147</v>
+        <v>454</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>455</v>
+        <v>148</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>456</v>
+        <v>265</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -5098,303 +5101,303 @@
         <v>347</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>348</v>
+        <v>153</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>457</v>
+        <v>155</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>268</v>
+        <v>456</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>458</v>
+        <v>349</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>377</v>
+        <v>158</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>378</v>
+        <v>159</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>159</v>
+        <v>351</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>518</v>
+        <v>353</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>354</v>
+        <v>517</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>355</v>
+        <v>164</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="2" t="s">
-        <v>164</v>
+      <c r="A412" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
-        <v>462</v>
+      <c r="A414" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -5402,15 +5405,15 @@
         <v>270</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -5418,111 +5421,111 @@
         <v>271</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>463</v>
+        <v>171</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>464</v>
+        <v>173</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -5530,215 +5533,215 @@
         <v>357</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>358</v>
+        <v>177</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>465</v>
+        <v>180</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>183</v>
+        <v>465</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>466</v>
+        <v>184</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>467</v>
+        <v>274</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>186</v>
+        <v>518</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>520</v>
+        <v>222</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>361</v>
+        <v>187</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -5746,247 +5749,247 @@
         <v>277</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>362</v>
+        <v>519</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>521</v>
+        <v>188</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>468</v>
+        <v>189</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>469</v>
+        <v>190</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>195</v>
+        <v>468</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>198</v>
+        <v>520</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>367</v>
+        <v>471</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -5994,263 +5997,263 @@
         <v>368</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>523</v>
+        <v>370</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>205</v>
+        <v>524</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>475</v>
+        <v>207</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>207</v>
+        <v>474</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>224</v>
+        <v>525</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>527</v>
+        <v>211</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>225</v>
+        <v>526</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>226</v>
+        <v>527</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>528</v>
+        <v>212</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -6258,39 +6261,39 @@
         <v>281</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -6298,47 +6301,47 @@
         <v>532</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>534</v>
+        <v>227</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>373</v>
+        <v>214</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>214</v>
+        <v>534</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -6346,7 +6349,7 @@
         <v>535</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>537</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -6354,14 +6357,24 @@
         <v>536</v>
       </c>
       <c r="B535" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536"/>
+      <c r="B536" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537"/>
+      <c r="A537" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538"/>
@@ -6732,20 +6745,14 @@
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661"/>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B535" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
-    <sortState ref="A2:B535">
-      <sortCondition ref="A1:A662"/>
+  <autoFilter ref="A1:B533" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
+    <sortState ref="A2:B533">
+      <sortCondition ref="A1:A660"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A414" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
+    <hyperlink ref="A412" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9BECF5-E315-2546-AB17-C18EFE367A42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8C7ED-B822-B345-8E7E-741723755E6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="3-letter" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="541">
   <si>
     <t>Word</t>
   </si>
@@ -692,9 +692,6 @@
     <t>hella</t>
   </si>
   <si>
-    <t>one’s</t>
-  </si>
-  <si>
     <t>ought</t>
   </si>
   <si>
@@ -1653,6 +1650,15 @@
   </si>
   <si>
     <t>every</t>
+  </si>
+  <si>
+    <t>clogs</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>words</t>
   </si>
 </sst>
 </file>
@@ -2069,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2ACCF-A399-9E41-B429-5A160A996BCC}">
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2192,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -2194,7 +2200,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2216,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -2218,7 +2224,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
@@ -2226,7 +2232,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -2242,7 +2248,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -2250,7 +2256,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2274,7 +2280,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2312,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -2338,7 +2344,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -2362,7 +2368,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2384,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
@@ -2394,7 +2400,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
@@ -2410,7 +2416,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2432,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>2</v>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2480,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>2</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>2</v>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>2</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>2</v>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>2</v>
@@ -2562,7 +2568,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>2</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>2</v>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2600,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>2</v>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>2</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>2</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>2</v>
@@ -2650,7 +2656,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>2</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>2</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2696,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>2</v>
@@ -2698,7 +2704,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>2</v>
@@ -2706,7 +2712,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2720,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>2</v>
@@ -2746,7 +2752,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>2</v>
@@ -2770,7 +2776,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>2</v>
@@ -2778,7 +2784,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>2</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2816,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>2</v>
@@ -2818,7 +2824,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2840,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>2</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2864,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>2</v>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>2</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>2</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2960,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>2</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>2</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>2</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>2</v>
@@ -3002,7 +3008,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>2</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>2</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>2</v>
@@ -3050,7 +3056,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>2</v>
@@ -3074,7 +3080,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>2</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>2</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>2</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2</v>
@@ -3178,7 +3184,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>2</v>
@@ -3194,7 +3200,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>2</v>
@@ -3202,7 +3208,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>2</v>
@@ -3250,7 +3256,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>2</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>2</v>
@@ -3282,7 +3288,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>2</v>
@@ -3290,7 +3296,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>2</v>
@@ -3306,7 +3312,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>2</v>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>2</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>2</v>
@@ -3346,7 +3352,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>2</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>2</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>2</v>
@@ -3386,7 +3392,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>2</v>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>2</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>2</v>
@@ -3450,7 +3456,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>2</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>2</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>2</v>
@@ -3514,7 +3520,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>2</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>2</v>
@@ -3546,7 +3552,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>2</v>
@@ -3554,7 +3560,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>2</v>
@@ -3578,7 +3584,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>2</v>
@@ -3586,7 +3592,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>2</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>2</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>2</v>
@@ -3610,7 +3616,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>2</v>
@@ -3618,7 +3624,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>2</v>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>2</v>
@@ -3642,7 +3648,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>2</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>2</v>
@@ -3658,7 +3664,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>2</v>
@@ -3682,7 +3688,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>2</v>
@@ -3690,7 +3696,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>2</v>
@@ -3706,7 +3712,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>2</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>2</v>
@@ -3738,7 +3744,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>2</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>2</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3776,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>2</v>
@@ -3778,7 +3784,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3800,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>2</v>
@@ -3810,7 +3816,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>2</v>
@@ -3818,7 +3824,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>2</v>
@@ -3850,7 +3856,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3872,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>2</v>
@@ -3874,7 +3880,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>2</v>
@@ -3882,7 +3888,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>2</v>
@@ -3890,7 +3896,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>2</v>
@@ -3898,7 +3904,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>2</v>
@@ -3906,7 +3912,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>2</v>
@@ -3914,7 +3920,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>2</v>
@@ -3930,7 +3936,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>2</v>
@@ -3946,7 +3952,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>2</v>
@@ -3954,7 +3960,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>2</v>
@@ -3986,7 +3992,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>2</v>
@@ -3994,7 +4000,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>2</v>
@@ -4002,7 +4008,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>2</v>
@@ -4010,7 +4016,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>2</v>
@@ -4034,7 +4040,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>2</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>2</v>
@@ -4058,7 +4064,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>2</v>
@@ -4074,7 +4080,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>2</v>
@@ -4090,7 +4096,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>2</v>
@@ -4098,7 +4104,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>2</v>
@@ -4106,7 +4112,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>2</v>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>2</v>
@@ -4154,7 +4160,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>2</v>
@@ -4162,7 +4168,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>2</v>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>2</v>
@@ -4178,7 +4184,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>2</v>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>2</v>
@@ -4202,7 +4208,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>2</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>2</v>
@@ -4234,7 +4240,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>2</v>
@@ -4250,7 +4256,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>2</v>
@@ -4258,7 +4264,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>2</v>
@@ -4274,7 +4280,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>2</v>
@@ -4282,7 +4288,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>2</v>
@@ -4314,7 +4320,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>2</v>
@@ -4346,7 +4352,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>2</v>
@@ -4354,7 +4360,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>2</v>
@@ -4362,7 +4368,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>2</v>
@@ -4370,7 +4376,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>2</v>
@@ -4378,7 +4384,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>2</v>
@@ -4386,7 +4392,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>2</v>
@@ -4402,7 +4408,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>2</v>
@@ -4442,7 +4448,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>2</v>
@@ -4450,7 +4456,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>2</v>
@@ -4466,7 +4472,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>2</v>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>2</v>
@@ -4482,7 +4488,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>2</v>
@@ -4490,7 +4496,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>2</v>
@@ -4498,7 +4504,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>2</v>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>2</v>
@@ -4514,7 +4520,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>2</v>
@@ -4522,7 +4528,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>2</v>
@@ -4530,7 +4536,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>2</v>
@@ -4538,7 +4544,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>2</v>
@@ -4546,7 +4552,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>2</v>
@@ -4554,7 +4560,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>2</v>
@@ -4562,7 +4568,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>2</v>
@@ -4570,7 +4576,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>2</v>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>445</v>
+        <v>119</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>2</v>
@@ -4586,7 +4592,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>2</v>
@@ -4594,7 +4600,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>2</v>
@@ -4602,7 +4608,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>2</v>
@@ -4610,7 +4616,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>2</v>
@@ -4618,7 +4624,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>2</v>
@@ -4626,7 +4632,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>2</v>
@@ -4634,7 +4640,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>2</v>
@@ -4642,7 +4648,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>125</v>
+        <v>445</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>2</v>
@@ -4658,7 +4664,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>447</v>
+        <v>126</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>2</v>
@@ -4666,7 +4672,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>2</v>
@@ -4674,7 +4680,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>2</v>
@@ -4682,7 +4688,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>2</v>
@@ -4690,7 +4696,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>2</v>
@@ -4698,7 +4704,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>2</v>
@@ -4706,7 +4712,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>2</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>2</v>
@@ -4730,7 +4736,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>2</v>
@@ -4738,7 +4744,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>2</v>
@@ -4746,7 +4752,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>2</v>
@@ -4754,7 +4760,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>260</v>
+        <v>512</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>2</v>
@@ -4762,7 +4768,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>513</v>
+        <v>134</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>2</v>
@@ -4770,7 +4776,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>2</v>
@@ -4778,7 +4784,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>448</v>
+        <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>2</v>
@@ -4794,7 +4800,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>2</v>
@@ -4802,7 +4808,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>2</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>2</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>2</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>2</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>2</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>2</v>
@@ -4850,7 +4856,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>2</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>2</v>
@@ -4866,7 +4872,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>2</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>451</v>
+        <v>262</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>2</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>2</v>
@@ -4898,7 +4904,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>2</v>
@@ -4906,7 +4912,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>2</v>
@@ -4914,7 +4920,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>2</v>
@@ -4930,7 +4936,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>2</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>2</v>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>2</v>
@@ -4954,7 +4960,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>2</v>
@@ -4962,7 +4968,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>2</v>
@@ -4970,7 +4976,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>2</v>
@@ -4978,7 +4984,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>2</v>
@@ -4986,7 +4992,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>2</v>
@@ -4994,7 +5000,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>2</v>
@@ -5002,7 +5008,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>2</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>2</v>
@@ -5018,7 +5024,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>147</v>
+        <v>452</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>2</v>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>454</v>
+        <v>148</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>2</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>2</v>
@@ -5058,7 +5064,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>2</v>
@@ -5066,7 +5072,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>2</v>
@@ -5074,7 +5080,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>2</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>2</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>2</v>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>2</v>
@@ -5106,7 +5112,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>2</v>
@@ -5114,7 +5120,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>153</v>
+        <v>454</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>2</v>
@@ -5122,7 +5128,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>455</v>
+        <v>154</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>2</v>
@@ -5130,7 +5136,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>2</v>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>2</v>
@@ -5146,7 +5152,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>2</v>
@@ -5154,7 +5160,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>348</v>
+        <v>455</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>2</v>
@@ -5162,7 +5168,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>456</v>
+        <v>156</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>2</v>
@@ -5170,7 +5176,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>2</v>
@@ -5178,7 +5184,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>2</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>2</v>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>2</v>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>2</v>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>2</v>
@@ -5218,7 +5224,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>515</v>
+        <v>376</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>2</v>
@@ -5226,7 +5232,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>2</v>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>457</v>
+        <v>159</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>2</v>
@@ -5242,7 +5248,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>2</v>
@@ -5250,7 +5256,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>458</v>
+        <v>350</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>2</v>
@@ -5266,7 +5272,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>2</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>2</v>
@@ -5282,7 +5288,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>2</v>
@@ -5290,7 +5296,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>162</v>
+        <v>515</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>2</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>2</v>
@@ -5306,7 +5312,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>2</v>
@@ -5314,7 +5320,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>2</v>
@@ -5322,7 +5328,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>268</v>
+        <v>516</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>2</v>
@@ -5330,7 +5336,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>517</v>
+        <v>353</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>2</v>
@@ -5338,7 +5344,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>2</v>
@@ -5346,7 +5352,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>2</v>
@@ -5354,23 +5360,23 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="2" t="s">
-        <v>165</v>
+      <c r="A411" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
-        <v>460</v>
+      <c r="A412" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>2</v>
@@ -5378,7 +5384,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>2</v>
@@ -5386,7 +5392,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>2</v>
@@ -5394,7 +5400,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>2</v>
@@ -5402,7 +5408,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>2</v>
@@ -5410,7 +5416,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>2</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>2</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>2</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>2</v>
@@ -5442,7 +5448,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>461</v>
+        <v>170</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>2</v>
@@ -5450,7 +5456,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>2</v>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>2</v>
@@ -5466,7 +5472,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>2</v>
@@ -5474,7 +5480,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>462</v>
+        <v>172</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>2</v>
@@ -5482,7 +5488,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>2</v>
@@ -5490,7 +5496,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>2</v>
@@ -5498,7 +5504,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>2</v>
@@ -5506,7 +5512,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>2</v>
@@ -5514,7 +5520,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>2</v>
@@ -5522,7 +5528,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>2</v>
@@ -5530,7 +5536,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>357</v>
+        <v>176</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>2</v>
@@ -5538,7 +5544,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>2</v>
@@ -5546,7 +5552,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>2</v>
@@ -5554,7 +5560,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>178</v>
+        <v>462</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>2</v>
@@ -5562,7 +5568,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>463</v>
+        <v>179</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>2</v>
@@ -5570,7 +5576,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>2</v>
@@ -5578,7 +5584,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>2</v>
@@ -5586,7 +5592,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>2</v>
@@ -5594,7 +5600,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>2</v>
@@ -5610,7 +5616,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>2</v>
@@ -5618,7 +5624,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>2</v>
@@ -5634,7 +5640,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>2</v>
@@ -5642,7 +5648,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>2</v>
@@ -5650,7 +5656,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>2</v>
@@ -5658,7 +5664,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>2</v>
@@ -5666,7 +5672,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>2</v>
@@ -5674,7 +5680,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>2</v>
@@ -5682,7 +5688,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>2</v>
@@ -5690,7 +5696,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>221</v>
+        <v>517</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>2</v>
@@ -5698,7 +5704,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>2</v>
@@ -5706,7 +5712,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>2</v>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>2</v>
@@ -5722,7 +5728,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>2</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>2</v>
@@ -5738,7 +5744,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>2</v>
@@ -5746,7 +5752,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>277</v>
+        <v>518</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>2</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>519</v>
+        <v>361</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>2</v>
@@ -5762,7 +5768,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>2</v>
@@ -5770,7 +5776,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>2</v>
@@ -5786,7 +5792,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>2</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>2</v>
@@ -5802,7 +5808,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>190</v>
+        <v>362</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>2</v>
@@ -5810,7 +5816,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>2</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>2</v>
@@ -5826,7 +5832,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>2</v>
@@ -5834,7 +5840,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>2</v>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>2</v>
@@ -5850,7 +5856,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>2</v>
@@ -5858,7 +5864,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>2</v>
@@ -5866,7 +5872,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>196</v>
+        <v>467</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>2</v>
@@ -5874,7 +5880,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>468</v>
+        <v>197</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>2</v>
@@ -5882,7 +5888,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>2</v>
@@ -5890,7 +5896,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>198</v>
+        <v>468</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>2</v>
@@ -5898,7 +5904,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>2</v>
@@ -5906,7 +5912,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>520</v>
+        <v>199</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>2</v>
@@ -5914,7 +5920,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>199</v>
+        <v>469</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>2</v>
@@ -5922,7 +5928,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>2</v>
@@ -5930,7 +5936,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>2</v>
@@ -5938,7 +5944,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>2</v>
@@ -5946,7 +5952,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>2</v>
@@ -5978,7 +5984,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>367</v>
+        <v>470</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>2</v>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>2</v>
@@ -6002,7 +6008,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>2</v>
@@ -6010,7 +6016,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>2</v>
@@ -6018,7 +6024,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2</v>
@@ -6026,7 +6032,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2</v>
@@ -6034,7 +6040,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>2</v>
@@ -6042,7 +6048,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>204</v>
+        <v>369</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>2</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>2</v>
@@ -6058,7 +6064,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>522</v>
+        <v>205</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>2</v>
@@ -6066,7 +6072,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>205</v>
+        <v>522</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>2</v>
@@ -6082,7 +6088,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>2</v>
@@ -6090,7 +6096,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>2</v>
@@ -6098,7 +6104,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>2</v>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>2</v>
@@ -6114,7 +6120,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>208</v>
+        <v>473</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>2</v>
@@ -6122,7 +6128,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>474</v>
+        <v>222</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>2</v>
@@ -6138,7 +6144,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>2</v>
@@ -6146,7 +6152,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>209</v>
+        <v>524</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>2</v>
@@ -6154,7 +6160,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>525</v>
+        <v>210</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>2</v>
@@ -6162,7 +6168,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>2</v>
@@ -6170,7 +6176,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>2</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>226</v>
+        <v>525</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>2</v>
@@ -6202,7 +6208,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>527</v>
+        <v>212</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>2</v>
@@ -6210,7 +6216,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>212</v>
+        <v>527</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>2</v>
@@ -6218,7 +6224,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>528</v>
+        <v>213</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2</v>
@@ -6226,7 +6232,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>2</v>
@@ -6242,7 +6248,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>280</v>
+        <v>528</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>2</v>
@@ -6250,7 +6256,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>2</v>
@@ -6258,7 +6264,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>2</v>
@@ -6266,7 +6272,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>2</v>
@@ -6274,7 +6280,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>2</v>
@@ -6298,7 +6304,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>532</v>
+        <v>371</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>2</v>
@@ -6306,7 +6312,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>2</v>
@@ -6314,7 +6320,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>2</v>
@@ -6322,7 +6328,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>214</v>
+        <v>532</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>2</v>
@@ -6377,10 +6383,20 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538"/>
+      <c r="A538" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539"/>
+      <c r="A539" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540"/>
@@ -6742,17 +6758,14 @@
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B533" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
-    <sortState ref="A2:B533">
-      <sortCondition ref="A1:A660"/>
+  <autoFilter ref="A1:B532" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
+    <sortState ref="A2:B532">
+      <sortCondition ref="A1:A659"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A412" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
+    <hyperlink ref="A411" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8C7ED-B822-B345-8E7E-741723755E6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BC594-B7F0-6040-B563-43E3594FBA64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="543">
   <si>
     <t>Word</t>
   </si>
@@ -1656,6 +1656,12 @@
   </si>
   <si>
     <t>drill</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>unify</t>
   </si>
   <si>
     <t>words</t>
@@ -2077,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2ACCF-A399-9E41-B429-5A160A996BCC}">
   <dimension ref="A1:B659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A540" sqref="A540"/>
+    <sheetView tabSelected="1" topLeftCell="A529" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B541" sqref="B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6392,17 +6398,27 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540"/>
+      <c r="B540" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541"/>
+      <c r="A541" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542"/>

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BC594-B7F0-6040-B563-43E3594FBA64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4DAEE4-32CC-3E4B-95B8-ED0941B3E936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="544">
   <si>
     <t>Word</t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>every</t>
+  </si>
+  <si>
+    <t>chord</t>
   </si>
   <si>
     <t>clogs</t>
@@ -2084,7 +2087,7 @@
   <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B541" sqref="B541"/>
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6382,7 +6385,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>2</v>
@@ -6390,7 +6393,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>2</v>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>2</v>
@@ -6406,7 +6409,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>2</v>
@@ -6414,14 +6417,19 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542"/>
+      <c r="A542" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543"/>

--- a/Word Bank.xlsx
+++ b/Word Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorysuematsu/Desktop/Github_Repositories/Grordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4DAEE4-32CC-3E4B-95B8-ED0941B3E936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE195BE-BD29-CC41-867F-188A8CFCABF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{1C1B96C1-01B4-7340-A364-4D56BB1E6EA2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5-letter'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="548">
   <si>
     <t>Word</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>slyly</t>
   </si>
   <si>
-    <t>so-so</t>
-  </si>
-  <si>
     <t>spang</t>
   </si>
   <si>
@@ -1661,10 +1658,25 @@
     <t>drill</t>
   </si>
   <si>
+    <t>frail</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>rails</t>
+  </si>
+  <si>
     <t>sword</t>
   </si>
   <si>
+    <t>trail</t>
+  </si>
+  <si>
     <t>unify</t>
+  </si>
+  <si>
+    <t>vials</t>
   </si>
   <si>
     <t>words</t>
@@ -2084,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2ACCF-A399-9E41-B429-5A160A996BCC}">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2105,7 +2117,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2177,7 +2189,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -2185,7 +2197,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2321,7 +2333,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2385,7 +2397,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -2441,7 +2453,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -2569,7 +2581,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>2</v>
@@ -2617,7 +2629,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>2</v>
@@ -2649,7 +2661,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>2</v>
@@ -2665,7 +2677,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>2</v>
@@ -2713,7 +2725,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>2</v>
@@ -2721,7 +2733,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>2</v>
@@ -2777,7 +2789,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>2</v>
@@ -2793,7 +2805,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>2</v>
@@ -2969,7 +2981,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>2</v>
@@ -2977,7 +2989,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>2</v>
@@ -3161,7 +3173,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2</v>
@@ -3193,7 +3205,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2</v>
@@ -3569,7 +3581,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>2</v>
@@ -3593,7 +3605,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>2</v>
@@ -3617,7 +3629,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>2</v>
@@ -3665,7 +3677,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>2</v>
@@ -3697,7 +3709,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>2</v>
@@ -3753,7 +3765,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>2</v>
@@ -3785,7 +3797,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>2</v>
@@ -3793,7 +3805,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>2</v>
@@ -3825,7 +3837,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>2</v>
@@ -3881,7 +3893,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>2</v>
@@ -3889,7 +3901,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>2</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>2</v>
@@ -3913,7 +3925,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>2</v>
@@ -4001,7 +4013,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>2</v>
@@ -4049,7 +4061,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>2</v>
@@ -4185,7 +4197,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>2</v>
@@ -4273,7 +4285,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>2</v>
@@ -4297,7 +4309,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>2</v>
@@ -4385,7 +4397,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>2</v>
@@ -4769,7 +4781,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>2</v>
@@ -4993,7 +5005,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>2</v>
@@ -5225,7 +5237,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>2</v>
@@ -5305,7 +5317,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>2</v>
@@ -5313,7 +5325,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>2</v>
@@ -5321,7 +5333,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>2</v>
@@ -5329,7 +5341,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>267</v>
+        <v>515</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>2</v>
@@ -5337,7 +5349,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>516</v>
+        <v>353</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>2</v>
@@ -5345,7 +5357,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>2</v>
@@ -5353,7 +5365,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>2</v>
@@ -5361,23 +5373,23 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="2" t="s">
-        <v>165</v>
+      <c r="A410" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
-        <v>459</v>
+      <c r="A411" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>2</v>
@@ -5385,7 +5397,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>2</v>
@@ -5393,7 +5405,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>2</v>
@@ -5401,7 +5413,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>2</v>
@@ -5409,7 +5421,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>2</v>
@@ -5417,7 +5429,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>2</v>
@@ -5425,7 +5437,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>2</v>
@@ -5433,7 +5445,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>2</v>
@@ -5441,7 +5453,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>169</v>
+        <v>459</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>2</v>
@@ -5449,7 +5461,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>2</v>
@@ -5457,7 +5469,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>2</v>
@@ -5465,7 +5477,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>2</v>
@@ -5473,7 +5485,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>271</v>
+        <v>460</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>2</v>
@@ -5481,7 +5493,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>461</v>
+        <v>172</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>2</v>
@@ -5489,7 +5501,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>2</v>
@@ -5497,7 +5509,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>2</v>
@@ -5505,7 +5517,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>2</v>
@@ -5513,7 +5525,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>2</v>
@@ -5521,7 +5533,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>2</v>
@@ -5529,7 +5541,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>2</v>
@@ -5537,7 +5549,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>2</v>
@@ -5545,7 +5557,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>2</v>
@@ -5553,7 +5565,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>2</v>
@@ -5561,7 +5573,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>178</v>
+        <v>461</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>2</v>
@@ -5569,7 +5581,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>2</v>
@@ -5577,7 +5589,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>2</v>
@@ -5585,7 +5597,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>2</v>
@@ -5593,7 +5605,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>2</v>
@@ -5601,7 +5613,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>2</v>
@@ -5609,7 +5621,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>2</v>
@@ -5617,7 +5629,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>2</v>
@@ -5625,7 +5637,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>183</v>
+        <v>462</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>2</v>
@@ -5641,7 +5653,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>464</v>
+        <v>184</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>2</v>
@@ -5649,7 +5661,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>2</v>
@@ -5657,7 +5669,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>2</v>
@@ -5665,7 +5677,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>2</v>
@@ -5673,7 +5685,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>2</v>
@@ -5681,7 +5693,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>2</v>
@@ -5689,7 +5701,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>2</v>
@@ -5697,7 +5709,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>220</v>
+        <v>516</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>2</v>
@@ -5705,7 +5717,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>517</v>
+        <v>359</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>2</v>
@@ -5713,7 +5725,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>2</v>
@@ -5721,7 +5733,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>2</v>
@@ -5729,7 +5741,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>2</v>
@@ -5737,7 +5749,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>2</v>
@@ -5745,7 +5757,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>2</v>
@@ -5753,7 +5765,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>276</v>
+        <v>517</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>2</v>
@@ -5761,7 +5773,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>518</v>
+        <v>361</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>2</v>
@@ -5769,7 +5781,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>361</v>
+        <v>188</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>2</v>
@@ -5777,7 +5789,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>188</v>
+        <v>464</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>2</v>
@@ -5793,7 +5805,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>466</v>
+        <v>189</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>2</v>
@@ -5801,7 +5813,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>2</v>
@@ -5809,7 +5821,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>190</v>
+        <v>362</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>2</v>
@@ -5817,7 +5829,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>2</v>
@@ -5825,7 +5837,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>2</v>
@@ -5833,7 +5845,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>2</v>
@@ -5841,7 +5853,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>2</v>
@@ -5849,7 +5861,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>2</v>
@@ -5857,7 +5869,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>2</v>
@@ -5865,7 +5877,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>2</v>
@@ -5873,7 +5885,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>2</v>
@@ -5881,7 +5893,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>467</v>
+        <v>197</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>2</v>
@@ -5889,7 +5901,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>2</v>
@@ -5897,7 +5909,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>2</v>
@@ -5905,7 +5917,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>2</v>
@@ -5913,7 +5925,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>519</v>
+        <v>199</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>2</v>
@@ -5921,7 +5933,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>2</v>
@@ -5929,7 +5941,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>469</v>
+        <v>200</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>2</v>
@@ -5937,7 +5949,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>2</v>
@@ -5945,7 +5957,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>2</v>
@@ -5953,7 +5965,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>2</v>
@@ -5961,7 +5973,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>2</v>
@@ -5969,7 +5981,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>2</v>
@@ -5977,7 +5989,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>2</v>
@@ -5985,7 +5997,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>366</v>
+        <v>469</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>2</v>
@@ -5993,7 +6005,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>2</v>
@@ -6001,7 +6013,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>2</v>
@@ -6009,7 +6021,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>368</v>
+        <v>202</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>2</v>
@@ -6017,7 +6029,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>202</v>
+        <v>470</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>2</v>
@@ -6025,7 +6037,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>471</v>
+        <v>203</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>2</v>
@@ -6033,7 +6045,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>203</v>
+        <v>519</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2</v>
@@ -6041,7 +6053,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>520</v>
+        <v>204</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2</v>
@@ -6049,7 +6061,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>204</v>
+        <v>369</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>2</v>
@@ -6057,7 +6069,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>2</v>
@@ -6065,7 +6077,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>2</v>
@@ -6073,7 +6085,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>205</v>
+        <v>521</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>2</v>
@@ -6089,7 +6101,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>2</v>
@@ -6097,7 +6109,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>472</v>
+        <v>206</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>2</v>
@@ -6105,7 +6117,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>2</v>
@@ -6113,7 +6125,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>2</v>
@@ -6121,7 +6133,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>2</v>
@@ -6129,7 +6141,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>473</v>
+        <v>222</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>2</v>
@@ -6137,7 +6149,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>2</v>
@@ -6145,7 +6157,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>2</v>
@@ -6153,7 +6165,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>209</v>
+        <v>523</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>2</v>
@@ -6161,7 +6173,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>2</v>
@@ -6169,7 +6181,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>2</v>
@@ -6177,7 +6189,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>2</v>
@@ -6185,7 +6197,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>2</v>
@@ -6193,7 +6205,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>225</v>
+        <v>524</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>2</v>
@@ -6209,7 +6221,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>526</v>
+        <v>212</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>2</v>
@@ -6217,7 +6229,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>212</v>
+        <v>526</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>2</v>
@@ -6225,7 +6237,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>527</v>
+        <v>213</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>2</v>
@@ -6233,7 +6245,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2</v>
@@ -6241,7 +6253,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>2</v>
@@ -6249,7 +6261,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>279</v>
+        <v>527</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>2</v>
@@ -6257,7 +6269,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>528</v>
+        <v>280</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>2</v>
@@ -6265,7 +6277,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>2</v>
@@ -6273,7 +6285,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>2</v>
@@ -6281,7 +6293,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>2</v>
@@ -6305,7 +6317,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>2</v>
@@ -6313,7 +6325,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>2</v>
@@ -6321,7 +6333,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>2</v>
@@ -6329,7 +6341,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>214</v>
+        <v>531</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>2</v>
@@ -6377,7 +6389,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>2</v>
@@ -6393,7 +6405,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>2</v>
@@ -6409,7 +6421,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>2</v>
@@ -6417,7 +6429,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>2</v>
@@ -6425,64 +6437,84 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543"/>
+      <c r="A543" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545"/>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546"/>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
@@ -6779,17 +6811,14 @@
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B532" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
-    <sortState ref="A2:B532">
-      <sortCondition ref="A1:A659"/>
+  <autoFilter ref="A1:B531" xr:uid="{3200739E-6350-3D42-A54D-C92036B4EBEC}">
+    <sortState ref="A2:B531">
+      <sortCondition ref="A1:A658"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A411" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
+    <hyperlink ref="A410" r:id="rId1" display="https://en.wiktionary.org/wiki/spang" xr:uid="{DA119BFA-5900-A84A-8C42-DF45B1B75FC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
